--- a/pyScript/dataBase_py/src/write1.xlsx
+++ b/pyScript/dataBase_py/src/write1.xlsx
@@ -8,9 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="first_sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="test1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="test6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="test5" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="test4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="test3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="test2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="test1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="test" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,6 +454,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -515,14 +709,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hello mygirl</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>刘烨仪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>